--- a/biology/Botanique/Racemobambos/Racemobambos.xlsx
+++ b/biology/Botanique/Racemobambos/Racemobambos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Racemobambos est un genre de plantes de la famille des Poaceae. Il a été décrit en 1956 par Richard Eric Holttum dans  The Gardens' Bulletin Singapore[2]. L'espèce type est Racemobambos gibbsiae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Racemobambos est un genre de plantes de la famille des Poaceae. Il a été décrit en 1956 par Richard Eric Holttum dans  The Gardens' Bulletin Singapore. L'espèce type est Racemobambos gibbsiae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (29 août 2015)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (29 août 2015) :
 Racemobambos celebica S.Dransf.
 Racemobambos ceramica S.Dransf.
 Racemobambos congesta (Pilg.) Holttum
@@ -533,7 +547,7 @@
 Racemobambos schultzei (Pilg.) Holttum
 Racemobambos sessilis Widjaja
 Racemobambos setifera Holttum
-Selon World Checklist of Selected Plant Families (WCSP)  (29 août 2015)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (29 août 2015) :
 Racemobambos celebica S.Dransf. (1992)
 Racemobambos ceramica S.Dransf. (1980)
 Racemobambos congesta (Pilg.) Holttum (1967)
@@ -553,11 +567,11 @@
 Racemobambos schultzei (Pilg.) Holttum (1967)
 Racemobambos sessilis Widjaja (1997)
 Racemobambos setifera Holttum (1956)
-Selon NCBI  (29 août 2015)[5] :
+Selon NCBI  (29 août 2015) :
 Racemobambos gibbsiae
 Racemobambos hepburnii
 Racemobambos yunnanensis
-Selon The Plant List            (29 août 2015)[6] :
+Selon The Plant List            (29 août 2015) :
 Racemobambos celebica S.Dransf.
 Racemobambos ceramica S.Dransf.
 Racemobambos congesta (Pilg.) Holttum
@@ -577,7 +591,7 @@
 Racemobambos schultzei (Pilg.) Holttum
 Racemobambos sessilis Widjaja
 Racemobambos setifera Holttum
-Selon Tropicos                                           (29 août 2015)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (29 août 2015) (Attention liste brute contenant possiblement des synonymes) :
 Racemobambos celebica S. Dransf.
 Racemobambos ceramica S. Dransf.
 Racemobambos ciliata (A. Camus) C.S. Chao &amp; Renvoize
